--- a/图层命名规则.xlsx
+++ b/图层命名规则.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10515"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>NormalLayer</t>
   </si>
@@ -26,7 +39,7 @@
 （Divided by ":"）</t>
   </si>
   <si>
-    <t>Artlayer
+    <t>Artlayer（ps中组的孩子）
 (Childen)
 （Address）</t>
   </si>
@@ -57,19 +70,16 @@
     <t>面板</t>
   </si>
   <si>
-    <t>b_</t>
-  </si>
-  <si>
-    <t>MiniMap@Panel</t>
+    <t>b_(背景图片)</t>
   </si>
   <si>
     <t>按扭@Button</t>
   </si>
   <si>
-    <t>n_,p_,h_,d_,t_</t>
-  </si>
-  <si>
-    <t>Close@Button</t>
+    <t>n_(普通状态),p_,h_,d_,t_</t>
+  </si>
+  <si>
+    <t>Close@Button  (close是变量 button是类型按钮)</t>
   </si>
   <si>
     <t>双选@Toggle</t>
@@ -84,13 +94,13 @@
     <t>滑动区@ScrollView</t>
   </si>
   <si>
-    <t>v,h,vh</t>
-  </si>
-  <si>
-    <t>c_,vb_,hb</t>
-  </si>
-  <si>
-    <t>Students@ScrollView:V</t>
+    <t>v（竖直滚动视图）,h（水平滚动视图）,vh（这种少不考虑）</t>
+  </si>
+  <si>
+    <t>c_(内容页),vb_（垂直滚动条）,hb(竖直滚动条)</t>
+  </si>
+  <si>
+    <t>Students@ScrollView:V（这里:v表示是竖直滚动视图）</t>
   </si>
   <si>
     <t>手动条@Scrollbar</t>
@@ -108,7 +118,7 @@
     <t>滑动条@Slider</t>
   </si>
   <si>
-    <t>b_,f_,h_</t>
+    <t>b_(背景图片),f_(填充图片),h_(进度条帽子图标)</t>
   </si>
   <si>
     <t>Progress@Slider:B</t>
@@ -151,6 +161,12 @@
   </si>
   <si>
     <t>Persons@Grid:10</t>
+  </si>
+  <si>
+    <t>如果是文本不用特意标注 用英文标注即可，实在有困难就用拼音还有困难用中文（客户端会转英文翻译）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如果是image那种小图 也不用刻意标注 ，原理同上 ，psd这个库解析默认就是image和text这种比较好区分 </t>
   </si>
   <si>
     <t>ArtLayer</t>
@@ -227,12 +243,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -279,8 +295,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,72 +381,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,11 +396,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,28 +411,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +433,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,25 +457,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,145 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,45 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -710,10 +693,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -743,6 +724,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -751,173 +762,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -927,13 +953,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -942,23 +971,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -970,64 +993,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="31" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="22" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1301,425 +1320,415 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="2" max="2" width="101.666666666667" customWidth="1"/>
+    <col min="3" max="3" width="56.75" customWidth="1"/>
+    <col min="4" max="4" width="71.75" customWidth="1"/>
+    <col min="5" max="5" width="56.75" customWidth="1"/>
+    <col min="6" max="6" width="58.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="54.75" customHeight="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="6"/>
-      <c r="B3" s="12" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="13" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:11">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6"/>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="13" t="s">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="8"/>
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="8"/>
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="8"/>
+      <c r="B7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6"/>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:11">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="13" t="s">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="17"/>
+      <c r="B10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="14"/>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="17"/>
+      <c r="B11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="17"/>
+      <c r="B12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="14"/>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" ht="41.25" customHeight="1" spans="1:11">
+      <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" ht="41.25" customHeight="1" spans="6:11">
-      <c r="F14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" ht="31.5" customHeight="1" spans="6:6">
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" ht="46.5" customHeight="1" spans="6:6">
-      <c r="F16" s="17"/>
+      <c r="F14" s="19"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" ht="31.5" customHeight="1" spans="1:11">
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" ht="46.5" customHeight="1" spans="1:11">
+      <c r="F16" s="19"/>
     </row>
     <row r="17" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A17" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="D17" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="G17" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="14"/>
-      <c r="B18" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="F18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="F19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="14"/>
-      <c r="B20" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="E20" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="F20" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" ht="48" customHeight="1" spans="1:7">
-      <c r="A22" s="14"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="14"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="14"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="14"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" ht="48" customHeight="1" spans="1:9">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="17"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="17"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="14"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="26"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="18"/>
-      <c r="B27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="17"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="7"/>
+      <c r="B27" s="19"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="30"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="28"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="28"/>
+        <v>65</v>
+      </c>
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="19"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1739,16 +1748,15 @@
     <hyperlink ref="B10" r:id="rId8" display="输入框@InputField"/>
     <hyperlink ref="B11" r:id="rId9" display="组@Group"/>
     <hyperlink ref="B12" r:id="rId10" display="格子@Grid"/>
-    <hyperlink ref="F3" r:id="rId11" display="MiniMap@Panel"/>
-    <hyperlink ref="F4" r:id="rId12" display="Close@Button"/>
-    <hyperlink ref="F5" r:id="rId13" display="Switch@Toggle"/>
-    <hyperlink ref="F6" r:id="rId14" display="Students@ScrollView:V"/>
-    <hyperlink ref="F7" r:id="rId15" display="leftBar@Scrollbar:B"/>
-    <hyperlink ref="F8" r:id="rId16" display="Progress@Slider:B"/>
-    <hyperlink ref="F9" r:id="rId17" display="UserModle@Dropdown"/>
-    <hyperlink ref="F10" r:id="rId18" display="Name@InputField"/>
-    <hyperlink ref="F11" r:id="rId19" display="LogList@Group:V:0.2"/>
-    <hyperlink ref="F12" r:id="rId20" display="Persons@Grid:10"/>
+    <hyperlink ref="F4" r:id="rId11" display="Close@Button  (close是变量 button是类型按钮)"/>
+    <hyperlink ref="F5" r:id="rId12" display="Switch@Toggle"/>
+    <hyperlink ref="F6" r:id="rId13" display="Students@ScrollView:V（这里:v表示是竖直滚动视图）" tooltip="mailto:Students@ScrollView:V（这里:v表示是竖直滚动视图）"/>
+    <hyperlink ref="F7" r:id="rId14" display="leftBar@Scrollbar:B"/>
+    <hyperlink ref="F8" r:id="rId15" display="Progress@Slider:B"/>
+    <hyperlink ref="F9" r:id="rId16" display="UserModle@Dropdown"/>
+    <hyperlink ref="F10" r:id="rId17" display="Name@InputField"/>
+    <hyperlink ref="F11" r:id="rId18" display="LogList@Group:V:0.2"/>
+    <hyperlink ref="F12" r:id="rId19" display="Persons@Grid:10"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
